--- a/SE/Project 3/Test Log.xlsx
+++ b/SE/Project 3/Test Log.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1440" windowWidth="19665" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="1440" windowWidth="19665" windowHeight="9195" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
     <sheet name="Feature_or_Component1" sheetId="9" r:id="rId2"/>
     <sheet name="Feature_or_Component2" sheetId="10" r:id="rId3"/>
-    <sheet name="Instructions" sheetId="6" r:id="rId4"/>
+    <sheet name="Feature_or_Component3" sheetId="11" r:id="rId4"/>
+    <sheet name="Feature_or_Component4" sheetId="12" r:id="rId5"/>
+    <sheet name="Feature_or_Component5" sheetId="13" r:id="rId6"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
   <si>
     <t xml:space="preserve">Project: </t>
   </si>
@@ -635,6 +638,144 @@
   </si>
   <si>
     <t>Game Ends when a Draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature/Component 3: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature/Component 4: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature/Component 5: </t>
+  </si>
+  <si>
+    <t>Victory/Defeat Screen</t>
+  </si>
+  <si>
+    <t>Player 1 Wining</t>
+  </si>
+  <si>
+    <t>See if the message shows player 1 winning</t>
+  </si>
+  <si>
+    <t>Win a game as Player 1</t>
+  </si>
+  <si>
+    <t>Player 1 (X) hasWon!</t>
+  </si>
+  <si>
+    <t>See if the message shows player 2 winning</t>
+  </si>
+  <si>
+    <t>Win a game as Player 2</t>
+  </si>
+  <si>
+    <t>Player 2 (O) hasWon!</t>
+  </si>
+  <si>
+    <t>F1.3</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Will the message show a draw when the game ends in a draw</t>
+  </si>
+  <si>
+    <t>Draw the game</t>
+  </si>
+  <si>
+    <t>The Game is a Draw!</t>
+  </si>
+  <si>
+    <t>Rematch</t>
+  </si>
+  <si>
+    <t>See if the rematch will start properly</t>
+  </si>
+  <si>
+    <t>F4.1</t>
+  </si>
+  <si>
+    <t>Turn Indicator Changes with the turn</t>
+  </si>
+  <si>
+    <t>Does the turn indicator work correctly</t>
+  </si>
+  <si>
+    <t>Make a move</t>
+  </si>
+  <si>
+    <t>The Turn indicator goes to the other player</t>
+  </si>
+  <si>
+    <t>Select Rematch at the game over message</t>
+  </si>
+  <si>
+    <t>Board is cleared, Score is kepted, Opposite player starts and players switch symbols</t>
+  </si>
+  <si>
+    <t>See if the game goes to main menu</t>
+  </si>
+  <si>
+    <t>Select Main Menu at the game over message</t>
+  </si>
+  <si>
+    <t>The Main Menu is displayed</t>
+  </si>
+  <si>
+    <t>Own Player Game</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI Can  Place as X </t>
+  </si>
+  <si>
+    <t>See if X is place when the AI is X</t>
+  </si>
+  <si>
+    <t>Play as O and see if the AI plays as X</t>
+  </si>
+  <si>
+    <t>AI Can  Place as O</t>
+  </si>
+  <si>
+    <t>See if X is place when the AI is O</t>
+  </si>
+  <si>
+    <t>Play as X and see if the AI plays as O</t>
+  </si>
+  <si>
+    <t>Player 2 name is changed to computer</t>
+  </si>
+  <si>
+    <t>Player 2 should be called computer</t>
+  </si>
+  <si>
+    <t>Start a 1 player game</t>
+  </si>
+  <si>
+    <t>Player 2 is Computer</t>
+  </si>
+  <si>
+    <t>AI at picks a random spot with no AI Logic</t>
+  </si>
+  <si>
+    <t>See if the AI can randomly place when there is no AI logic</t>
+  </si>
+  <si>
+    <t>Play 1 player game mode and see if the AI places randomly</t>
+  </si>
+  <si>
+    <t>AI Places Randomly</t>
+  </si>
+  <si>
+    <t>Only works when module 5 is INCOMPLETE</t>
+  </si>
+  <si>
+    <t>Never reach this unfortunatly.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +892,63 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1138,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,10 +1407,28 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1444,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,18 +1637,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I10:I102">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1448,13 +1663,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,12 +1895,35 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I9:I99">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1699,6 +1937,637 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="84.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'Title Page'!B2</f>
+        <v>Tic Tac Toe</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'Title Page'!B3</f>
+        <v>Gabriel Stroe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>'Title Page'!C10</f>
+        <v>Victory/Defeat Screen</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I9 I11:I94">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I94">
+      <formula1>",PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="84.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'Title Page'!B2</f>
+        <v>Tic Tac Toe</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'Title Page'!B3</f>
+        <v>Gabriel Stroe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>'Title Page'!C11</f>
+        <v>Own Player Game</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I9:I93">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I93">
+      <formula1>",PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="84.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'Title Page'!B2</f>
+        <v>Tic Tac Toe</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'Title Page'!B3</f>
+        <v>Gabriel Stroe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>'Title Page'!C12</f>
+        <v>AI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I9:I93">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I93">
+      <formula1>",PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/SE/Project 3/Test Log.xlsx
+++ b/SE/Project 3/Test Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
   <si>
     <t xml:space="preserve">Project: </t>
   </si>
@@ -775,7 +775,121 @@
     <t>Only works when module 5 is INCOMPLETE</t>
   </si>
   <si>
-    <t>Never reach this unfortunatly.</t>
+    <t>F1.4</t>
+  </si>
+  <si>
+    <t>F1.5</t>
+  </si>
+  <si>
+    <t>F1.6</t>
+  </si>
+  <si>
+    <t>PATH 1</t>
+  </si>
+  <si>
+    <t>PATH 2</t>
+  </si>
+  <si>
+    <t>PATH 3</t>
+  </si>
+  <si>
+    <t>PATH 4</t>
+  </si>
+  <si>
+    <t>PATH 5</t>
+  </si>
+  <si>
+    <t>Turn Mistake chance to zero</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 1</t>
+  </si>
+  <si>
+    <t>The PATH 1 logic is followed</t>
+  </si>
+  <si>
+    <t>The PATH 2 logic is followed</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 2</t>
+  </si>
+  <si>
+    <t>PATH 6</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 3</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 4</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 5</t>
+  </si>
+  <si>
+    <t>Test if AI will follow Path 6</t>
+  </si>
+  <si>
+    <t>The PATH 3 logic is followed</t>
+  </si>
+  <si>
+    <t>The PATH 4 logic is followed</t>
+  </si>
+  <si>
+    <t>The PATH 5 logic is followed</t>
+  </si>
+  <si>
+    <t>The PATH 6 logic is followed</t>
+  </si>
+  <si>
+    <t>Always trys to win or block</t>
+  </si>
+  <si>
+    <t>See if it will always try to win if it can or if it cant it will try to block. If it cant it goes to path logic</t>
+  </si>
+  <si>
+    <t>Wins and Blocks when possible</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy mode </t>
+  </si>
+  <si>
+    <t>Select Easy Mode at meain menu</t>
+  </si>
+  <si>
+    <t>AI makes a mistake at an average rate of 1/4 moves</t>
+  </si>
+  <si>
+    <t>F3.2</t>
+  </si>
+  <si>
+    <t>F3.3</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median mode </t>
+  </si>
+  <si>
+    <t>Select Median Mode at meain menu</t>
+  </si>
+  <si>
+    <t>AI makes a mistake at an average rate of 1/10 moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard mode </t>
+  </si>
+  <si>
+    <t>Select Hard Mode at meain menu</t>
+  </si>
+  <si>
+    <t>AI makes a mistake at an average rate of 1/100 moves</t>
   </si>
 </sst>
 </file>
@@ -892,7 +1006,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1637,18 +1779,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I10:I102">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1920,10 +2062,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I9:I99">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2172,18 +2314,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I9 I11:I94">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2409,10 +2551,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I9:I93">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2427,13 +2569,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,31 +2672,279 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="K9" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I9:I93">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
